--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_VOC.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>173.9021579904873</v>
+        <v>334.2670222451882</v>
       </c>
       <c r="C2">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D2">
-        <v>4.547678081124566</v>
+        <v>8.741345293658595</v>
       </c>
       <c r="E2">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F2">
-        <v>2.767526960189512</v>
+        <v>5.31961768994511</v>
       </c>
       <c r="G2">
-        <v>73.82597561109905</v>
+        <v>141.9050189889987</v>
       </c>
       <c r="H2">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I2">
-        <v>257.7134980961389</v>
+        <v>495.3654664003628</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>172.7318877482901</v>
+        <v>332.017580641923</v>
       </c>
       <c r="C3">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D3">
-        <v>9.600653726818528</v>
+        <v>18.45395117550148</v>
       </c>
       <c r="E3">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F3">
-        <v>2.240378967772463</v>
+        <v>4.306357177574612</v>
       </c>
       <c r="G3">
-        <v>63.46443517445353</v>
+        <v>121.9885250958059</v>
       </c>
       <c r="H3">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I3">
-        <v>250.7881663732991</v>
+        <v>482.0539006337067</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>183.0302658796247</v>
+        <v>351.8126667506557</v>
       </c>
       <c r="C4">
-        <v>0.02262235608826463</v>
+        <v>0.04348369044510745</v>
       </c>
       <c r="D4">
-        <v>7.579463468540943</v>
+        <v>14.56890882276432</v>
       </c>
       <c r="E4">
-        <v>3.117690395411655</v>
+        <v>5.992686328905042</v>
       </c>
       <c r="F4">
-        <v>2.029519770805643</v>
+        <v>3.901052972626414</v>
       </c>
       <c r="G4">
-        <v>58.28366495613081</v>
+        <v>112.0302781492096</v>
       </c>
       <c r="H4">
-        <v>0.5724769437122941</v>
+        <v>1.100389813961955</v>
       </c>
       <c r="I4">
-        <v>254.6357037703143</v>
+        <v>489.4494665285681</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>240.3735077472818</v>
+        <v>462.0353053106438</v>
       </c>
       <c r="C5">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D5">
-        <v>12.37979033195021</v>
+        <v>23.79588441051508</v>
       </c>
       <c r="E5">
-        <v>4.364766553576318</v>
+        <v>8.389760860467053</v>
       </c>
       <c r="F5">
-        <v>2.1085919696682</v>
+        <v>4.05304204948199</v>
       </c>
       <c r="G5">
-        <v>33.67500641909781</v>
+        <v>64.72860515287664</v>
       </c>
       <c r="H5">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I5">
-        <v>293.1549281077963</v>
+        <v>563.4894127101954</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>311.0578303759861</v>
+        <v>597.9015781478536</v>
       </c>
       <c r="C6">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D6">
-        <v>10.61124885595731</v>
+        <v>20.39647235187005</v>
       </c>
       <c r="E6">
-        <v>5.196150659019428</v>
+        <v>9.987810548175064</v>
       </c>
       <c r="F6">
-        <v>1.765945774597117</v>
+        <v>3.394422716441166</v>
       </c>
       <c r="G6">
-        <v>36.26539152825916</v>
+        <v>69.70772862617484</v>
       </c>
       <c r="H6">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I6">
-        <v>365.1475700444322</v>
+        <v>701.870478947681</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>263.7789125912236</v>
+        <v>507.0241373759449</v>
       </c>
       <c r="C7">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D7">
-        <v>6.316219557117453</v>
+        <v>12.1407573523036</v>
       </c>
       <c r="E7">
-        <v>6.443226817184089</v>
+        <v>12.38488507973708</v>
       </c>
       <c r="F7">
-        <v>1.238797782180067</v>
+        <v>2.381162204070668</v>
       </c>
       <c r="G7">
-        <v>33.67500641909781</v>
+        <v>64.72860515287664</v>
       </c>
       <c r="H7">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I7">
-        <v>311.8667308584768</v>
+        <v>599.4564108118027</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>186.7751306546553</v>
+        <v>359.0108798811038</v>
       </c>
       <c r="C8">
-        <v>0.01357341365295878</v>
+        <v>0.02609021426706448</v>
       </c>
       <c r="D8">
-        <v>4.295029298839867</v>
+        <v>8.255714999566454</v>
       </c>
       <c r="E8">
-        <v>3.949074500854764</v>
+        <v>7.590736016613052</v>
       </c>
       <c r="F8">
-        <v>0.7116497897630173</v>
+        <v>1.367901691700171</v>
       </c>
       <c r="G8">
-        <v>55.69327984696944</v>
+        <v>107.0511546759114</v>
       </c>
       <c r="H8">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I8">
-        <v>251.601302345796</v>
+        <v>483.6168745688654</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>116.0908080259511</v>
+        <v>223.1446070438942</v>
       </c>
       <c r="C9">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D9">
-        <v>4.547678081124566</v>
+        <v>8.741345293658595</v>
       </c>
       <c r="E9">
-        <v>6.027534764462535</v>
+        <v>11.58586023588308</v>
       </c>
       <c r="F9">
-        <v>0.7380071893838696</v>
+        <v>1.418564717318696</v>
       </c>
       <c r="G9">
-        <v>59.57885751071151</v>
+        <v>114.5198398858586</v>
       </c>
       <c r="H9">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I9">
-        <v>187.0714546989904</v>
+        <v>359.5804608285984</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>94.32378152108529</v>
+        <v>181.304993223164</v>
       </c>
       <c r="C10">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D10">
-        <v>2.021190258277584</v>
+        <v>3.885042352737155</v>
       </c>
       <c r="E10">
-        <v>1.662768210886217</v>
+        <v>3.196099375416023</v>
       </c>
       <c r="F10">
-        <v>0.4480757935544925</v>
+        <v>0.8612714355149228</v>
       </c>
       <c r="G10">
-        <v>36.26539152825916</v>
+        <v>69.70772862617484</v>
       </c>
       <c r="I10">
-        <v>134.7336496079113</v>
+        <v>258.9790510427518</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>62.02432283644567</v>
+        <v>119.2204049730483</v>
       </c>
       <c r="C11">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D11">
-        <v>0.757946346854094</v>
+        <v>1.456890882276433</v>
       </c>
       <c r="E11">
-        <v>2.701998342690103</v>
+        <v>5.193661485051032</v>
       </c>
       <c r="F11">
-        <v>0.3162887954502301</v>
+        <v>0.6079563074222983</v>
       </c>
       <c r="G11">
-        <v>38.85577663742055</v>
+        <v>74.68685209947304</v>
       </c>
       <c r="I11">
-        <v>104.6597263122739</v>
+        <v>201.1722883008379</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>35.10810726591262</v>
+        <v>67.48324809795186</v>
       </c>
       <c r="C12">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D12">
-        <v>0.505297564569396</v>
+        <v>0.9712605881842888</v>
       </c>
       <c r="E12">
-        <v>1.662768210886217</v>
+        <v>3.196099375416023</v>
       </c>
       <c r="F12">
-        <v>0.158144397725115</v>
+        <v>0.3039781537111492</v>
       </c>
       <c r="G12">
-        <v>11.65673299122616</v>
+        <v>22.40605562984191</v>
       </c>
       <c r="H12">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I12">
-        <v>49.18301291108956</v>
+        <v>94.53740805065725</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>21.29891840798701</v>
+        <v>40.93983717942412</v>
       </c>
       <c r="C13">
-        <v>0.004524471217652926</v>
+        <v>0.008696738089021491</v>
       </c>
       <c r="D13">
-        <v>0.505297564569396</v>
+        <v>0.9712605881842888</v>
       </c>
       <c r="E13">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F13">
-        <v>0.158144397725115</v>
+        <v>0.3039781537111492</v>
       </c>
       <c r="G13">
-        <v>10.36154043664548</v>
+        <v>19.9164938931928</v>
       </c>
       <c r="I13">
-        <v>33.36765540994854</v>
+        <v>64.13782866223639</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>12.40486456728914</v>
+        <v>23.84408099460967</v>
       </c>
       <c r="C14">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D14">
-        <v>0.757946346854094</v>
+        <v>1.456890882276433</v>
       </c>
       <c r="E14">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F14">
-        <v>0.2372165965876726</v>
+        <v>0.4559672305667238</v>
       </c>
       <c r="G14">
-        <v>19.42788831871027</v>
+        <v>37.34342604973652</v>
       </c>
       <c r="I14">
-        <v>33.66608664171076</v>
+        <v>64.71145995203089</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>5.851351210985439</v>
+        <v>11.24720801632531</v>
       </c>
       <c r="C15">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D15">
-        <v>0.757946346854094</v>
+        <v>1.456890882276433</v>
       </c>
       <c r="E15">
-        <v>0.2078460263607771</v>
+        <v>0.3995124219270028</v>
       </c>
       <c r="F15">
-        <v>0.2372165965876726</v>
+        <v>0.4559672305667238</v>
       </c>
       <c r="G15">
-        <v>9.06634788206479</v>
+        <v>17.42693215654371</v>
       </c>
       <c r="I15">
-        <v>16.12636365187484</v>
+        <v>30.99738163025046</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>3.276756678151846</v>
+        <v>6.298436489142173</v>
       </c>
       <c r="C16">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D16">
-        <v>0.252648782284698</v>
+        <v>0.4856302940921444</v>
       </c>
       <c r="F16">
-        <v>0.07907219886255752</v>
+        <v>0.1519890768555746</v>
       </c>
       <c r="G16">
-        <v>15.54231065496822</v>
+        <v>29.87474083978922</v>
       </c>
       <c r="I16">
-        <v>19.15418166768056</v>
+        <v>36.81731925344587</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>15.9156752938804</v>
+        <v>30.59240580440484</v>
       </c>
       <c r="D17">
-        <v>0.505297564569396</v>
+        <v>0.9712605881842888</v>
       </c>
       <c r="E17">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F17">
-        <v>0.21085919696682</v>
+        <v>0.405304204948199</v>
       </c>
       <c r="G17">
-        <v>32.37981386451712</v>
+        <v>62.2390434162275</v>
       </c>
       <c r="I17">
-        <v>49.84303002537685</v>
+        <v>95.80606370147285</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>38.38486394406448</v>
+        <v>73.78168458709403</v>
       </c>
       <c r="C18">
-        <v>0.004524471217652926</v>
+        <v>0.008696738089021491</v>
       </c>
       <c r="D18">
-        <v>1.010595129138792</v>
+        <v>1.942521176368578</v>
       </c>
       <c r="E18">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F18">
-        <v>0.6852923901421651</v>
+        <v>1.317238666081647</v>
       </c>
       <c r="G18">
-        <v>72.53078305651832</v>
+        <v>139.4154572523497</v>
       </c>
       <c r="I18">
-        <v>115.1102113074107</v>
+        <v>221.259747483107</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>121.2399970916183</v>
+        <v>233.0421500982604</v>
       </c>
       <c r="C19">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D19">
-        <v>2.52648782284698</v>
+        <v>4.856302940921441</v>
       </c>
       <c r="E19">
-        <v>8.729533107152637</v>
+        <v>16.77952172093411</v>
       </c>
       <c r="F19">
-        <v>1.37058478028433</v>
+        <v>2.634477332163293</v>
       </c>
       <c r="G19">
-        <v>103.6154043664548</v>
+        <v>199.164938931928</v>
       </c>
       <c r="H19">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I19">
-        <v>237.7307477833613</v>
+        <v>456.955509212329</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>244.8205346676309</v>
+        <v>470.583183403051</v>
       </c>
       <c r="C20">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D20">
-        <v>8.337409815395036</v>
+        <v>16.02579970504076</v>
       </c>
       <c r="E20">
-        <v>7.274610922627198</v>
+        <v>13.98293476744509</v>
       </c>
       <c r="F20">
-        <v>2.266736367393314</v>
+        <v>4.357020203193138</v>
       </c>
       <c r="G20">
-        <v>75.12116816567972</v>
+        <v>144.3945807256478</v>
       </c>
       <c r="H20">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I20">
-        <v>338.3179411687345</v>
+        <v>650.2997551806216</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>268.9281016568909</v>
+        <v>516.921680430311</v>
       </c>
       <c r="C21">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D21">
-        <v>5.05297564569396</v>
+        <v>9.712605881842881</v>
       </c>
       <c r="E21">
-        <v>5.403996685380205</v>
+        <v>10.38732297010206</v>
       </c>
       <c r="F21">
-        <v>1.976804971563938</v>
+        <v>3.799726921389365</v>
       </c>
       <c r="G21">
-        <v>69.94039794735698</v>
+        <v>134.4363337790514</v>
       </c>
       <c r="H21">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I21">
-        <v>351.8054137259165</v>
+        <v>676.2247772815518</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>210.180535498597</v>
+        <v>403.9997119464052</v>
       </c>
       <c r="C22">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D22">
-        <v>7.074165903971543</v>
+        <v>13.59764823458004</v>
       </c>
       <c r="E22">
-        <v>5.403996685380205</v>
+        <v>10.38732297010206</v>
       </c>
       <c r="F22">
-        <v>2.319451166635021</v>
+        <v>4.458346254430189</v>
       </c>
       <c r="G22">
-        <v>88.07309371148659</v>
+        <v>169.2901980921388</v>
       </c>
       <c r="H22">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I22">
-        <v>313.4680728933529</v>
+        <v>602.5344395135706</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>148.1562126621514</v>
+        <v>284.7793069733569</v>
       </c>
       <c r="C23">
-        <v>0.01922900267502494</v>
+        <v>0.03696113687834134</v>
       </c>
       <c r="D23">
-        <v>5.810921992548055</v>
+        <v>11.16949676411932</v>
       </c>
       <c r="E23">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F23">
-        <v>2.846599159052069</v>
+        <v>5.471606766800685</v>
       </c>
       <c r="G23">
-        <v>86.7779011569059</v>
+        <v>166.8006363554898</v>
       </c>
       <c r="H23">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I23">
-        <v>246.1800187601222</v>
+        <v>473.1963234850253</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>150.9648612434244</v>
+        <v>290.177966821193</v>
       </c>
       <c r="C24">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D24">
-        <v>6.821517121686846</v>
+        <v>13.11201794048789</v>
       </c>
       <c r="E24">
-        <v>3.117690395411655</v>
+        <v>5.992686328905042</v>
       </c>
       <c r="F24">
-        <v>2.635739962085249</v>
+        <v>5.066302561852486</v>
       </c>
       <c r="G24">
-        <v>77.71155327484109</v>
+        <v>149.3737041989461</v>
       </c>
       <c r="H24">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I24">
-        <v>241.5034959658666</v>
+        <v>464.2073185930731</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>142.0708074027265</v>
+        <v>273.0822106363786</v>
       </c>
       <c r="C25">
-        <v>0.01470453145737201</v>
+        <v>0.02826439878931985</v>
       </c>
       <c r="D25">
-        <v>4.547678081124566</v>
+        <v>8.741345293658595</v>
       </c>
       <c r="E25">
-        <v>2.701998342690103</v>
+        <v>5.193661485051032</v>
       </c>
       <c r="F25">
-        <v>1.660516176113708</v>
+        <v>3.191770613967067</v>
       </c>
       <c r="G25">
-        <v>56.98847240155012</v>
+        <v>109.5407164125604</v>
       </c>
       <c r="H25">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I25">
-        <v>208.147741776723</v>
+        <v>400.0923659301084</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>164.3059420044712</v>
+        <v>315.8216010984146</v>
       </c>
       <c r="C26">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D26">
-        <v>7.074165903971543</v>
+        <v>13.59764823458004</v>
       </c>
       <c r="E26">
-        <v>2.286306289968548</v>
+        <v>4.39463664119703</v>
       </c>
       <c r="F26">
-        <v>2.583025162843544</v>
+        <v>4.964976510615434</v>
       </c>
       <c r="G26">
-        <v>63.46443517445353</v>
+        <v>121.9885250958059</v>
       </c>
       <c r="H26">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I26">
-        <v>240.1307044629909</v>
+        <v>461.5685995965275</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>159.1567529388039</v>
+        <v>305.9240580440484</v>
       </c>
       <c r="C27">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D27">
-        <v>5.558273210263359</v>
+        <v>10.68386647002717</v>
       </c>
       <c r="E27">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F27">
-        <v>1.58144397725115</v>
+        <v>3.039781537111493</v>
       </c>
       <c r="G27">
-        <v>68.64520539277632</v>
+        <v>131.9467720424024</v>
       </c>
       <c r="H27">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I27">
-        <v>237.1927495661985</v>
+        <v>455.9213928787409</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>175.5405363295633</v>
+        <v>337.4162404897592</v>
       </c>
       <c r="C28">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D28">
-        <v>9.348004944533827</v>
+        <v>17.96832088140933</v>
       </c>
       <c r="E28">
-        <v>3.53338244813321</v>
+        <v>6.791711172759045</v>
       </c>
       <c r="F28">
-        <v>2.345808566255874</v>
+        <v>4.509009280048712</v>
       </c>
       <c r="G28">
-        <v>60.87405006529217</v>
+        <v>117.0094016225077</v>
       </c>
       <c r="H28">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I28">
-        <v>251.9813543317482</v>
+        <v>484.3473936556357</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>251.8421561208135</v>
+        <v>484.0798330226415</v>
       </c>
       <c r="C29">
-        <v>0.01357341365295878</v>
+        <v>0.02609021426706448</v>
       </c>
       <c r="D29">
-        <v>10.35860007367262</v>
+        <v>19.9108420577779</v>
       </c>
       <c r="E29">
-        <v>4.156920527215543</v>
+        <v>7.990248438540054</v>
       </c>
       <c r="F29">
-        <v>2.503952963980988</v>
+        <v>4.812987433759863</v>
       </c>
       <c r="G29">
-        <v>41.44616174658194</v>
+        <v>79.66597557277122</v>
       </c>
       <c r="H29">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I29">
-        <v>310.7302769485691</v>
+        <v>597.2719694640163</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>285.5459390960895</v>
+        <v>548.8637511966751</v>
       </c>
       <c r="C30">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D30">
-        <v>10.10595129138792</v>
+        <v>19.42521176368576</v>
       </c>
       <c r="E30">
-        <v>4.780458606297872</v>
+        <v>9.188785704321058</v>
       </c>
       <c r="F30">
-        <v>1.634158776492854</v>
+        <v>3.14110758834854</v>
       </c>
       <c r="G30">
-        <v>29.78942875535575</v>
+        <v>57.25991994292929</v>
       </c>
       <c r="H30">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I30">
-        <v>332.2806842775373</v>
+        <v>638.6952075035299</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>267.7578314146939</v>
+        <v>514.672238827046</v>
       </c>
       <c r="C31">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D31">
-        <v>10.86389763824202</v>
+        <v>20.8821026459622</v>
       </c>
       <c r="E31">
-        <v>6.651072843544867</v>
+        <v>12.78439750166409</v>
       </c>
       <c r="F31">
-        <v>1.26515518180092</v>
+        <v>2.431825229689193</v>
       </c>
       <c r="G31">
-        <v>47.9221245194853</v>
+        <v>92.11378425601671</v>
       </c>
       <c r="H31">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I31">
-        <v>334.6349576168718</v>
+        <v>643.2204873953042</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>170.3913472638961</v>
+        <v>327.5186974353929</v>
       </c>
       <c r="C32">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D32">
-        <v>10.35860007367262</v>
+        <v>19.9108420577779</v>
       </c>
       <c r="E32">
-        <v>5.611842711740977</v>
+        <v>10.78683539202907</v>
       </c>
       <c r="F32">
-        <v>1.107010784075805</v>
+        <v>2.127847075978044</v>
       </c>
       <c r="G32">
-        <v>54.39808729238876</v>
+        <v>104.5615929392622</v>
       </c>
       <c r="I32">
-        <v>241.8759370682095</v>
+        <v>464.9232083766182</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>107.6648622821321</v>
+        <v>206.9486275003857</v>
       </c>
       <c r="C33">
-        <v>0.01357341365295878</v>
+        <v>0.02609021426706448</v>
       </c>
       <c r="D33">
-        <v>5.305624427978657</v>
+        <v>10.19823617593503</v>
       </c>
       <c r="E33">
-        <v>6.651072843544867</v>
+        <v>12.78439750166409</v>
       </c>
       <c r="F33">
-        <v>0.6062201912796075</v>
+        <v>1.165249589226072</v>
       </c>
       <c r="G33">
-        <v>46.62693196490464</v>
+        <v>89.62422251936765</v>
       </c>
       <c r="I33">
-        <v>166.8682851234929</v>
+        <v>320.7468235008456</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>91.04702484293347</v>
+        <v>175.0065567340219</v>
       </c>
       <c r="C34">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D34">
-        <v>2.52648782284698</v>
+        <v>4.856302940921441</v>
       </c>
       <c r="E34">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F34">
-        <v>0.52714799241705</v>
+        <v>1.013260512370497</v>
       </c>
       <c r="G34">
-        <v>40.15096919200123</v>
+        <v>77.17641383612221</v>
       </c>
       <c r="H34">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I34">
-        <v>136.4197903589677</v>
+        <v>262.2200760792136</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>72.0886469193406</v>
+        <v>138.5656027611278</v>
       </c>
       <c r="C35">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D35">
-        <v>2.779136605131679</v>
+        <v>5.341933235013586</v>
       </c>
       <c r="E35">
-        <v>2.909844369050878</v>
+        <v>5.593173906978037</v>
       </c>
       <c r="F35">
-        <v>0.6852923901421651</v>
+        <v>1.317238666081647</v>
       </c>
       <c r="G35">
-        <v>42.74135430116261</v>
+        <v>82.15553730942037</v>
       </c>
       <c r="H35">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I35">
-        <v>121.296237065598</v>
+        <v>233.1502520841734</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>37.21459370186741</v>
+        <v>71.53224298382898</v>
       </c>
       <c r="C36">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D36">
-        <v>1.515892693708188</v>
+        <v>2.913781764552866</v>
       </c>
       <c r="E36">
-        <v>1.454922184525439</v>
+        <v>2.796586953489018</v>
       </c>
       <c r="F36">
-        <v>0.3162887954502301</v>
+        <v>0.6079563074222983</v>
       </c>
       <c r="G36">
-        <v>20.72308087329097</v>
+        <v>39.83298778638561</v>
       </c>
       <c r="I36">
-        <v>61.23269607347313</v>
+        <v>117.6987750873346</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>22.70324269862352</v>
+        <v>43.63916710334219</v>
       </c>
       <c r="C37">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D37">
-        <v>0.505297564569396</v>
+        <v>0.9712605881842888</v>
       </c>
       <c r="E37">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F37">
-        <v>0.3426461950710826</v>
+        <v>0.6586193330408233</v>
       </c>
       <c r="G37">
-        <v>12.95192554580684</v>
+        <v>24.89561736649101</v>
       </c>
       <c r="H37">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I37">
-        <v>37.63430461664478</v>
+        <v>72.33899270624532</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>11.00054027665263</v>
+        <v>21.14475107069158</v>
       </c>
       <c r="C38">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D38">
-        <v>0.505297564569396</v>
+        <v>0.9712605881842888</v>
       </c>
       <c r="E38">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F38">
-        <v>0.2372165965876726</v>
+        <v>0.4559672305667238</v>
       </c>
       <c r="G38">
-        <v>14.24711810038753</v>
+        <v>27.38517910314011</v>
       </c>
       <c r="I38">
-        <v>27.04071384804524</v>
+        <v>51.97646194744027</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>8.425945743819033</v>
+        <v>16.19597954350844</v>
       </c>
       <c r="C39">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="F39">
-        <v>0.1317869981042625</v>
+        <v>0.2533151280926244</v>
       </c>
       <c r="G39">
-        <v>14.24711810038753</v>
+        <v>27.38517910314011</v>
       </c>
       <c r="I39">
-        <v>22.80824419572406</v>
+        <v>43.84099632830794</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>8.191891695379615</v>
+        <v>15.74609122285543</v>
       </c>
       <c r="C40">
-        <v>0.004524471217652926</v>
+        <v>0.008696738089021491</v>
       </c>
       <c r="E40">
-        <v>0.4156920527215542</v>
+        <v>0.7990248438540056</v>
       </c>
       <c r="F40">
-        <v>0.2372165965876726</v>
+        <v>0.4559672305667238</v>
       </c>
       <c r="G40">
-        <v>27.19904364619438</v>
+        <v>52.28079646963111</v>
       </c>
       <c r="I40">
-        <v>36.04836846210087</v>
+        <v>69.2905765049963</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>18.02216172983515</v>
+        <v>34.64140069028195</v>
       </c>
       <c r="C41">
-        <v>0.002262235608826463</v>
+        <v>0.004348369044510745</v>
       </c>
       <c r="D41">
-        <v>1.010595129138792</v>
+        <v>1.942521176368578</v>
       </c>
       <c r="E41">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F41">
-        <v>0.4744331931753452</v>
+        <v>0.9119344611334476</v>
       </c>
       <c r="G41">
-        <v>51.80770218322738</v>
+        <v>99.58246946596402</v>
       </c>
       <c r="I41">
-        <v>72.14853857642859</v>
+        <v>138.6807238505005</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>40.02324228314041</v>
+        <v>76.93090283166508</v>
       </c>
       <c r="C42">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D42">
-        <v>2.273839040562283</v>
+        <v>4.370672646829298</v>
       </c>
       <c r="E42">
-        <v>2.909844369050878</v>
+        <v>5.593173906978037</v>
       </c>
       <c r="F42">
-        <v>0.6589349905213123</v>
+        <v>1.266575640463121</v>
       </c>
       <c r="G42">
-        <v>66.05482028361494</v>
+        <v>126.9676485691041</v>
       </c>
       <c r="H42">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I42">
-        <v>112.091032514777</v>
+        <v>215.4564157918766</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>133.1767535620286</v>
+        <v>255.9864544515641</v>
       </c>
       <c r="C43">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D43">
-        <v>3.031785387416376</v>
+        <v>5.827563529105732</v>
       </c>
       <c r="E43">
-        <v>9.353071186234967</v>
+        <v>17.97805898671512</v>
       </c>
       <c r="F43">
-        <v>1.713230975355413</v>
+        <v>3.293096665204116</v>
       </c>
       <c r="G43">
-        <v>101.0250192572934</v>
+        <v>194.1858154586298</v>
       </c>
       <c r="I43">
-        <v>248.3055159573508</v>
+        <v>477.2818600138302</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>240.8416158441608</v>
+        <v>462.9350819519498</v>
       </c>
       <c r="C44">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D44">
-        <v>7.579463468540943</v>
+        <v>14.56890882276432</v>
       </c>
       <c r="E44">
-        <v>7.482456948987976</v>
+        <v>14.3824471893721</v>
       </c>
       <c r="F44">
-        <v>2.1085919696682</v>
+        <v>4.05304204948199</v>
       </c>
       <c r="G44">
-        <v>91.95867137522862</v>
+        <v>176.7588833020862</v>
       </c>
       <c r="H44">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I44">
-        <v>350.468280836595</v>
+        <v>673.6545996918982</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>263.5448585427843</v>
+        <v>506.5742490552919</v>
       </c>
       <c r="C45">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D45">
-        <v>7.074165903971543</v>
+        <v>13.59764823458004</v>
       </c>
       <c r="E45">
-        <v>4.98830463265865</v>
+        <v>9.588298126248064</v>
       </c>
       <c r="F45">
-        <v>1.68687357573456</v>
+        <v>3.242433639585592</v>
       </c>
       <c r="G45">
-        <v>67.35001283819561</v>
+        <v>129.4572103057533</v>
       </c>
       <c r="H45">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I45">
-        <v>344.9826563535101</v>
+        <v>663.1103753860882</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>198.4778330766262</v>
+        <v>381.5052959137547</v>
       </c>
       <c r="C46">
-        <v>0.01696676706619847</v>
+        <v>0.0326127678338306</v>
       </c>
       <c r="D46">
-        <v>7.326814686256238</v>
+        <v>14.08327852867218</v>
       </c>
       <c r="E46">
-        <v>4.572612579937095</v>
+        <v>8.78927328239406</v>
       </c>
       <c r="F46">
-        <v>2.029519770805643</v>
+        <v>3.901052972626414</v>
       </c>
       <c r="G46">
-        <v>93.25386392980927</v>
+        <v>179.2484450387353</v>
       </c>
       <c r="H46">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I46">
-        <v>306.004740492622</v>
+        <v>588.1887526834232</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>150.2626990981061</v>
+        <v>288.8283018592339</v>
       </c>
       <c r="C47">
-        <v>0.01131117804413231</v>
+        <v>0.02174184522255372</v>
       </c>
       <c r="D47">
-        <v>7.074165903971543</v>
+        <v>13.59764823458004</v>
       </c>
       <c r="E47">
-        <v>3.325536421772433</v>
+        <v>6.392198750832045</v>
       </c>
       <c r="F47">
-        <v>2.503952963980988</v>
+        <v>4.812987433759863</v>
       </c>
       <c r="G47">
-        <v>91.95867137522862</v>
+        <v>176.7588833020862</v>
       </c>
       <c r="H47">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I47">
-        <v>255.5452490437554</v>
+        <v>491.1977541499732</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>146.0497262261966</v>
+        <v>280.7303120874797</v>
       </c>
       <c r="C48">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D48">
-        <v>5.558273210263359</v>
+        <v>10.68386647002717</v>
       </c>
       <c r="E48">
-        <v>3.53338244813321</v>
+        <v>6.791711172759045</v>
       </c>
       <c r="F48">
-        <v>2.398523365497577</v>
+        <v>4.610335331285765</v>
       </c>
       <c r="G48">
-        <v>66.05482028361494</v>
+        <v>126.9676485691041</v>
       </c>
       <c r="H48">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I48">
-        <v>223.9297730404579</v>
+        <v>430.4278871017184</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>150.7308071949849</v>
+        <v>289.72807850054</v>
       </c>
       <c r="C49">
-        <v>0.0180978848706117</v>
+        <v>0.03478695235608596</v>
       </c>
       <c r="D49">
-        <v>5.558273210263359</v>
+        <v>10.68386647002717</v>
       </c>
       <c r="E49">
-        <v>2.701998342690103</v>
+        <v>5.193661485051032</v>
       </c>
       <c r="F49">
-        <v>1.976804971563938</v>
+        <v>3.799726921389365</v>
       </c>
       <c r="G49">
-        <v>53.10289473780808</v>
+        <v>102.0720312026131</v>
       </c>
       <c r="H49">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I49">
-        <v>214.2524411832416</v>
+        <v>411.8265486216802</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_VOC.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>134.3316070704961</v>
+        <v>78.30803761008767</v>
       </c>
       <c r="C2">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D2">
-        <v>3.512877080629154</v>
+        <v>2.047816716769865</v>
       </c>
       <c r="E2">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F2">
-        <v>2.137790286613455</v>
+        <v>1.246215732971565</v>
       </c>
       <c r="G2">
-        <v>57.02725062174714</v>
+        <v>33.24379261050687</v>
       </c>
       <c r="H2">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I2">
-        <v>199.0721033197719</v>
+        <v>116.0482338732314</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>133.4276258654457</v>
+        <v>77.781065620787</v>
       </c>
       <c r="C3">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D3">
-        <v>7.416073836883771</v>
+        <v>4.323168624291937</v>
       </c>
       <c r="E3">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F3">
-        <v>1.730592136782321</v>
+        <v>1.008841307643648</v>
       </c>
       <c r="G3">
-        <v>49.02342597308086</v>
+        <v>28.57799715640064</v>
       </c>
       <c r="H3">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I3">
-        <v>193.72259558177</v>
+        <v>112.929761145342</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>141.3826604698896</v>
+        <v>82.41841912663342</v>
       </c>
       <c r="C4">
-        <v>0.01747475410410861</v>
+        <v>0.01018683340022455</v>
       </c>
       <c r="D4">
-        <v>5.854795134381928</v>
+        <v>3.413027861283107</v>
       </c>
       <c r="E4">
-        <v>2.408275814419783</v>
+        <v>1.403894118173393</v>
       </c>
       <c r="F4">
-        <v>1.567712876849868</v>
+        <v>0.9138915375124809</v>
       </c>
       <c r="G4">
-        <v>45.02151364874772</v>
+        <v>26.24509942934753</v>
       </c>
       <c r="H4">
-        <v>0.442212728975365</v>
+        <v>0.2577860249530809</v>
       </c>
       <c r="I4">
-        <v>196.6946454273684</v>
+        <v>114.6623049313033</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>185.6777395173615</v>
+        <v>108.2400466023689</v>
       </c>
       <c r="C5">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D5">
-        <v>9.562832052823808</v>
+        <v>5.574612173429075</v>
       </c>
       <c r="E5">
-        <v>3.371586140187696</v>
+        <v>1.96545176544275</v>
       </c>
       <c r="F5">
-        <v>1.628792599324537</v>
+        <v>0.9494977013116687</v>
       </c>
       <c r="G5">
-        <v>26.01243010816536</v>
+        <v>15.16383522584524</v>
       </c>
       <c r="H5">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I5">
-        <v>226.4490163227888</v>
+        <v>132.0074885850676</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>240.2782043024084</v>
+        <v>140.0691547561326</v>
       </c>
       <c r="C6">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D6">
-        <v>8.196713188134698</v>
+        <v>4.778239005796349</v>
       </c>
       <c r="E6">
-        <v>4.013793024032971</v>
+        <v>2.339823530288986</v>
       </c>
       <c r="F6">
-        <v>1.3641138019343</v>
+        <v>0.7952043248485223</v>
       </c>
       <c r="G6">
-        <v>28.01338627033193</v>
+        <v>16.33028408937179</v>
       </c>
       <c r="H6">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I6">
-        <v>282.0600990163578</v>
+        <v>164.4257321397681</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>203.7573636183704</v>
+        <v>118.7794863883833</v>
       </c>
       <c r="C7">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D7">
-        <v>4.878995945318271</v>
+        <v>2.844189884402589</v>
       </c>
       <c r="E7">
-        <v>4.977103349800887</v>
+        <v>2.901381177558344</v>
       </c>
       <c r="F7">
-        <v>0.9569156521031658</v>
+        <v>0.5578298995206051</v>
       </c>
       <c r="G7">
-        <v>26.01243010816536</v>
+        <v>15.16383522584524</v>
       </c>
       <c r="H7">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I7">
-        <v>240.9030435972665</v>
+        <v>140.4334021590267</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>144.2754003260511</v>
+        <v>84.10472949239569</v>
       </c>
       <c r="C8">
-        <v>0.01048485246246516</v>
+        <v>0.006112100040134731</v>
       </c>
       <c r="D8">
-        <v>3.317717242816423</v>
+        <v>1.93404912139376</v>
       </c>
       <c r="E8">
-        <v>3.050482698265058</v>
+        <v>1.778265883019631</v>
       </c>
       <c r="F8">
-        <v>0.5497175022720316</v>
+        <v>0.3204554741926882</v>
       </c>
       <c r="G8">
-        <v>43.0205574865812</v>
+        <v>25.07865056582098</v>
       </c>
       <c r="H8">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I8">
-        <v>194.3507066024413</v>
+        <v>113.2959157868495</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>89.67493554100417</v>
+        <v>52.27562133863189</v>
       </c>
       <c r="C9">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D9">
-        <v>3.512877080629154</v>
+        <v>2.047816716769865</v>
       </c>
       <c r="E9">
-        <v>4.65599990787825</v>
+        <v>2.714195295135225</v>
       </c>
       <c r="F9">
-        <v>0.5700774097635882</v>
+        <v>0.3323241954590841</v>
       </c>
       <c r="G9">
-        <v>46.02199172983106</v>
+        <v>26.82832386111082</v>
       </c>
       <c r="H9">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I9">
-        <v>144.504297342334</v>
+        <v>84.23816403212027</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>72.86088512706591</v>
+        <v>42.47394233763841</v>
       </c>
       <c r="C10">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D10">
-        <v>1.561278702501847</v>
+        <v>0.9101407630088285</v>
       </c>
       <c r="E10">
-        <v>1.28441376769055</v>
+        <v>0.7487435296924759</v>
       </c>
       <c r="F10">
-        <v>0.3461184273564643</v>
+        <v>0.2017682615287296</v>
       </c>
       <c r="G10">
-        <v>28.01338627033193</v>
+        <v>16.33028408937179</v>
       </c>
       <c r="I10">
-        <v>104.075693409704</v>
+        <v>60.67048173961035</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>47.91100386767362</v>
+        <v>27.92951543293842</v>
       </c>
       <c r="C11">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D11">
-        <v>0.5854795134381927</v>
+        <v>0.3413027861283106</v>
       </c>
       <c r="E11">
-        <v>2.087172372497146</v>
+        <v>1.216708235750274</v>
       </c>
       <c r="F11">
-        <v>0.2443188898986807</v>
+        <v>0.1424246551967503</v>
       </c>
       <c r="G11">
-        <v>30.0143424324985</v>
+        <v>17.49673295289836</v>
       </c>
       <c r="I11">
-        <v>80.84493828912176</v>
+        <v>47.12821208792214</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>27.11943615151338</v>
+        <v>15.80915967902174</v>
       </c>
       <c r="C12">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D12">
-        <v>0.3903196756254617</v>
+        <v>0.2275351907522071</v>
       </c>
       <c r="E12">
-        <v>1.28441376769055</v>
+        <v>0.7487435296924759</v>
       </c>
       <c r="F12">
-        <v>0.1221594449493403</v>
+        <v>0.07121232759837515</v>
       </c>
       <c r="G12">
-        <v>9.004302729749549</v>
+        <v>5.249019885869506</v>
       </c>
       <c r="H12">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I12">
-        <v>37.99166865587161</v>
+        <v>22.14708126295771</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>16.4524579319181</v>
+        <v>9.590890205273192</v>
       </c>
       <c r="C13">
-        <v>0.003494950820821721</v>
+        <v>0.00203736668004491</v>
       </c>
       <c r="D13">
-        <v>0.3903196756254617</v>
+        <v>0.2275351907522071</v>
       </c>
       <c r="E13">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F13">
-        <v>0.1221594449493403</v>
+        <v>0.07121232759837515</v>
       </c>
       <c r="G13">
-        <v>8.003824648666269</v>
+        <v>4.665795454106227</v>
       </c>
       <c r="I13">
-        <v>25.7750152567866</v>
+        <v>15.02543525046784</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>9.582200773534719</v>
+        <v>5.585903086587683</v>
       </c>
       <c r="C14">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D14">
-        <v>0.5854795134381927</v>
+        <v>0.3413027861283106</v>
       </c>
       <c r="E14">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F14">
-        <v>0.1832391674240104</v>
+        <v>0.1068184913975627</v>
       </c>
       <c r="G14">
-        <v>15.00717121624925</v>
+        <v>8.748366476449178</v>
       </c>
       <c r="I14">
-        <v>26.00553998072268</v>
+        <v>15.15981865542904</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>4.519906025252228</v>
+        <v>2.634859946503622</v>
       </c>
       <c r="C15">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D15">
-        <v>0.5854795134381927</v>
+        <v>0.3413027861283106</v>
       </c>
       <c r="E15">
-        <v>0.1605517209613188</v>
+        <v>0.09359294121155949</v>
       </c>
       <c r="F15">
-        <v>0.1832391674240104</v>
+        <v>0.1068184913975627</v>
       </c>
       <c r="G15">
-        <v>7.003346567582982</v>
+        <v>4.082571022342948</v>
       </c>
       <c r="I15">
-        <v>12.45689168318476</v>
+        <v>7.261691895934058</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>2.531147374141248</v>
+        <v>1.475521570042029</v>
       </c>
       <c r="C16">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D16">
-        <v>0.1951598378127309</v>
+        <v>0.1137675953761036</v>
       </c>
       <c r="F16">
-        <v>0.06107972247467017</v>
+        <v>0.03560616379918757</v>
       </c>
       <c r="G16">
-        <v>12.0057369729994</v>
+        <v>6.998693181159338</v>
       </c>
       <c r="I16">
-        <v>14.79574512054366</v>
+        <v>8.625116535386692</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>12.29414438868605</v>
+        <v>7.166819054489858</v>
       </c>
       <c r="D17">
-        <v>0.3903196756254617</v>
+        <v>0.2275351907522071</v>
       </c>
       <c r="E17">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F17">
-        <v>0.1628792599324538</v>
+        <v>0.09494977013116682</v>
       </c>
       <c r="G17">
-        <v>25.01195202708209</v>
+        <v>14.58061079408196</v>
       </c>
       <c r="I17">
-        <v>38.50150223517133</v>
+        <v>22.44428657430143</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>29.65058352565461</v>
+        <v>17.28468124906377</v>
       </c>
       <c r="C18">
-        <v>0.003494950820821721</v>
+        <v>0.00203736668004491</v>
       </c>
       <c r="D18">
-        <v>0.7806393512509234</v>
+        <v>0.4550703815044143</v>
       </c>
       <c r="E18">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F18">
-        <v>0.5293575947804748</v>
+        <v>0.3085867529262922</v>
       </c>
       <c r="G18">
-        <v>56.02677254066386</v>
+        <v>32.66056817874358</v>
       </c>
       <c r="I18">
-        <v>88.91746861470651</v>
+        <v>51.83405922345682</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>93.65245284322611</v>
+        <v>54.59429809155506</v>
       </c>
       <c r="C19">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D19">
-        <v>1.951598378127309</v>
+        <v>1.137675953761035</v>
       </c>
       <c r="E19">
-        <v>6.743172280375393</v>
+        <v>3.930903530885499</v>
       </c>
       <c r="F19">
-        <v>1.05871518956095</v>
+        <v>0.6171735058525843</v>
       </c>
       <c r="G19">
-        <v>80.03824648666264</v>
+        <v>46.65795454106227</v>
       </c>
       <c r="H19">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I19">
-        <v>183.6363261320575</v>
+        <v>107.0500133731064</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>189.1128680965532</v>
+        <v>110.2425401617116</v>
       </c>
       <c r="C20">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D20">
-        <v>6.440274647820115</v>
+        <v>3.75433064741142</v>
       </c>
       <c r="E20">
-        <v>5.619310233646159</v>
+        <v>3.275752942404581</v>
       </c>
       <c r="F20">
-        <v>1.750952044273878</v>
+        <v>1.020710028910043</v>
       </c>
       <c r="G20">
-        <v>58.02772870283046</v>
+        <v>33.82701704227017</v>
       </c>
       <c r="H20">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I20">
-        <v>261.3354156333339</v>
+        <v>152.3443663226877</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>207.7348809205924</v>
+        <v>121.0981631413065</v>
       </c>
       <c r="C21">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D21">
-        <v>3.903196756254618</v>
+        <v>2.275351907522071</v>
       </c>
       <c r="E21">
-        <v>4.174344744994292</v>
+        <v>2.433416471500548</v>
       </c>
       <c r="F21">
-        <v>1.526993061866754</v>
+        <v>0.8901540949796891</v>
       </c>
       <c r="G21">
-        <v>54.02581637849728</v>
+        <v>31.49411931521704</v>
       </c>
       <c r="H21">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I21">
-        <v>271.7538824589416</v>
+        <v>158.4177671388558</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>162.3550244270601</v>
+        <v>94.6441692784102</v>
       </c>
       <c r="C22">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D22">
-        <v>5.464475458756462</v>
+        <v>3.1854926705309</v>
       </c>
       <c r="E22">
-        <v>4.174344744994292</v>
+        <v>2.433416471500548</v>
       </c>
       <c r="F22">
-        <v>1.791671859256991</v>
+        <v>1.044447471442836</v>
       </c>
       <c r="G22">
-        <v>68.03250951366326</v>
+        <v>39.65926135990293</v>
       </c>
       <c r="H22">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I22">
-        <v>242.1400084026499</v>
+        <v>141.154485518444</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>114.4440205593864</v>
+        <v>66.71465384547179</v>
       </c>
       <c r="C23">
-        <v>0.01485354098849232</v>
+        <v>0.00865880839019087</v>
       </c>
       <c r="D23">
-        <v>4.488676269692809</v>
+        <v>2.616654693650381</v>
       </c>
       <c r="E23">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F23">
-        <v>2.198870009088127</v>
+        <v>1.281821896770753</v>
       </c>
       <c r="G23">
-        <v>67.03203143258003</v>
+        <v>39.07603692813966</v>
       </c>
       <c r="H23">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I23">
-        <v>190.1630085033279</v>
+        <v>110.8547150344981</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>116.6135754515074</v>
+        <v>67.97938661979349</v>
       </c>
       <c r="C24">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D24">
-        <v>5.269315620943734</v>
+        <v>3.071725075154796</v>
       </c>
       <c r="E24">
-        <v>2.408275814419783</v>
+        <v>1.403894118173393</v>
       </c>
       <c r="F24">
-        <v>2.035990749155673</v>
+        <v>1.186872126639585</v>
       </c>
       <c r="G24">
-        <v>60.028684864997</v>
+        <v>34.99346590579671</v>
       </c>
       <c r="H24">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I24">
-        <v>186.5506046682443</v>
+        <v>108.7488796205579</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>109.7433182931241</v>
+        <v>63.974399501108</v>
       </c>
       <c r="C25">
-        <v>0.0113585901676706</v>
+        <v>0.006621441710145959</v>
       </c>
       <c r="D25">
-        <v>3.512877080629154</v>
+        <v>2.047816716769865</v>
       </c>
       <c r="E25">
-        <v>2.087172372497146</v>
+        <v>1.216708235750274</v>
       </c>
       <c r="F25">
-        <v>1.282674171968074</v>
+        <v>0.7477294397829393</v>
       </c>
       <c r="G25">
-        <v>44.02103556766448</v>
+        <v>25.66187499758425</v>
       </c>
       <c r="H25">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I25">
-        <v>160.7847825700436</v>
+        <v>93.72880348269207</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>126.9189611890825</v>
+        <v>73.98686729782177</v>
       </c>
       <c r="C26">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D26">
-        <v>5.464475458756462</v>
+        <v>3.1854926705309</v>
       </c>
       <c r="E26">
-        <v>1.766068930574507</v>
+        <v>1.029522353327154</v>
       </c>
       <c r="F26">
-        <v>1.995270934172559</v>
+        <v>1.163134684106794</v>
       </c>
       <c r="G26">
-        <v>49.02342597308086</v>
+        <v>28.57799715640064</v>
       </c>
       <c r="H26">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I26">
-        <v>185.4901848845857</v>
+        <v>108.1307124288438</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>122.9414438868606</v>
+        <v>71.66819054489856</v>
       </c>
       <c r="C27">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D27">
-        <v>4.293516431880079</v>
+        <v>2.502887098274278</v>
       </c>
       <c r="E27">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F27">
-        <v>1.221594449493403</v>
+        <v>0.7121232759837514</v>
       </c>
       <c r="G27">
-        <v>53.02533829741403</v>
+        <v>30.91089488345376</v>
       </c>
       <c r="H27">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I27">
-        <v>183.2207466708959</v>
+        <v>106.8077530980726</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>135.5971807575668</v>
+        <v>79.04579839510873</v>
       </c>
       <c r="C28">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D28">
-        <v>7.220913999071042</v>
+        <v>4.209401028915832</v>
       </c>
       <c r="E28">
-        <v>2.729379256342421</v>
+        <v>1.591080000596511</v>
       </c>
       <c r="F28">
-        <v>1.812031766748548</v>
+        <v>1.056316192709231</v>
       </c>
       <c r="G28">
-        <v>47.0224698109143</v>
+        <v>27.41154829287409</v>
       </c>
       <c r="H28">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I28">
-        <v>194.6442796933863</v>
+        <v>113.4670529685477</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>194.5367553268559</v>
+        <v>113.4043720975159</v>
       </c>
       <c r="C29">
-        <v>0.01048485246246516</v>
+        <v>0.006112100040134731</v>
       </c>
       <c r="D29">
-        <v>8.001553350321965</v>
+        <v>4.664471410420246</v>
       </c>
       <c r="E29">
-        <v>3.211034419226378</v>
+        <v>1.87185882423119</v>
       </c>
       <c r="F29">
-        <v>1.934191211697888</v>
+        <v>1.127528520307606</v>
       </c>
       <c r="G29">
-        <v>32.01529859466508</v>
+        <v>18.66318181642491</v>
       </c>
       <c r="H29">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I29">
-        <v>240.025183990212</v>
+        <v>139.9216576439065</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>220.5714140323087</v>
+        <v>128.5811653893768</v>
       </c>
       <c r="C30">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D30">
-        <v>7.806393512509237</v>
+        <v>4.550703815044141</v>
       </c>
       <c r="E30">
-        <v>3.692689582110333</v>
+        <v>2.152637647865868</v>
       </c>
       <c r="F30">
-        <v>1.262314264476517</v>
+        <v>0.7358607185165432</v>
       </c>
       <c r="G30">
-        <v>23.01099586491553</v>
+        <v>13.41416193055541</v>
       </c>
       <c r="H30">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I30">
-        <v>256.6719058191756</v>
+        <v>149.6257931597054</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>206.8308997155419</v>
+        <v>120.5711911520058</v>
       </c>
       <c r="C31">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D31">
-        <v>8.391873025947424</v>
+        <v>4.892006601172456</v>
       </c>
       <c r="E31">
-        <v>5.137655070762202</v>
+        <v>2.994974118769904</v>
       </c>
       <c r="F31">
-        <v>0.9772755595947227</v>
+        <v>0.5696986207870012</v>
       </c>
       <c r="G31">
-        <v>37.01768900008149</v>
+        <v>21.57930397524131</v>
       </c>
       <c r="H31">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I31">
-        <v>258.4904762429728</v>
+        <v>150.6859210346632</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>131.6196634553448</v>
+        <v>76.72712164218554</v>
       </c>
       <c r="C32">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D32">
-        <v>8.001553350321965</v>
+        <v>4.664471410420246</v>
       </c>
       <c r="E32">
-        <v>4.334896465955608</v>
+        <v>2.527009412712107</v>
       </c>
       <c r="F32">
-        <v>0.8551161146453822</v>
+        <v>0.4984862931886259</v>
       </c>
       <c r="G32">
-        <v>42.02007940549791</v>
+        <v>24.4954261340577</v>
       </c>
       <c r="I32">
-        <v>186.8382986934073</v>
+        <v>108.9165896259243</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>83.16627086464099</v>
+        <v>48.48142301566668</v>
       </c>
       <c r="C33">
-        <v>0.01048485246246516</v>
+        <v>0.006112100040134731</v>
       </c>
       <c r="D33">
-        <v>4.098356594067349</v>
+        <v>2.389119502898175</v>
       </c>
       <c r="E33">
-        <v>5.137655070762202</v>
+        <v>2.994974118769904</v>
       </c>
       <c r="F33">
-        <v>0.4682778723058048</v>
+        <v>0.2729805891271048</v>
       </c>
       <c r="G33">
-        <v>36.0172109189982</v>
+        <v>20.99607954347803</v>
       </c>
       <c r="I33">
-        <v>128.898256173237</v>
+        <v>75.14068886998001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>70.32973775292467</v>
+        <v>40.99842076759642</v>
       </c>
       <c r="C34">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D34">
-        <v>1.951598378127309</v>
+        <v>1.137675953761035</v>
       </c>
       <c r="E34">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F34">
-        <v>0.4071981498311343</v>
+        <v>0.2373744253279172</v>
       </c>
       <c r="G34">
-        <v>31.01482051358177</v>
+        <v>18.07995738466163</v>
       </c>
       <c r="H34">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I34">
-        <v>105.378161415011</v>
+        <v>61.42974991014597</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>55.68524223110744</v>
+        <v>32.46147454092464</v>
       </c>
       <c r="C35">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D35">
-        <v>2.146758215940039</v>
+        <v>1.251443549137139</v>
       </c>
       <c r="E35">
-        <v>2.247724093458464</v>
+        <v>1.310301176961833</v>
       </c>
       <c r="F35">
-        <v>0.5293575947804748</v>
+        <v>0.3085867529262922</v>
       </c>
       <c r="G35">
-        <v>33.01577667574836</v>
+        <v>19.24640624818819</v>
       </c>
       <c r="H35">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I35">
-        <v>93.69589569737812</v>
+        <v>54.6196229181615</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>28.74660232060415</v>
+        <v>16.75770925976305</v>
       </c>
       <c r="C36">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D36">
-        <v>1.170959026876385</v>
+        <v>0.6826055722566212</v>
       </c>
       <c r="E36">
-        <v>1.123862046729232</v>
+        <v>0.6551505884809166</v>
       </c>
       <c r="F36">
-        <v>0.2443188898986807</v>
+        <v>0.1424246551967503</v>
       </c>
       <c r="G36">
-        <v>16.00764929733254</v>
+        <v>9.331590908212453</v>
       </c>
       <c r="I36">
-        <v>47.29950774537743</v>
+        <v>27.57304637559987</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>17.53723537797865</v>
+        <v>10.22325659243406</v>
       </c>
       <c r="C37">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D37">
-        <v>0.3903196756254617</v>
+        <v>0.2275351907522071</v>
       </c>
       <c r="E37">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F37">
-        <v>0.2646787973902374</v>
+        <v>0.1542933764631461</v>
       </c>
       <c r="G37">
-        <v>10.00478081083283</v>
+        <v>5.832244317632784</v>
       </c>
       <c r="H37">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I37">
-        <v>29.0708101529771</v>
+        <v>16.94670483336339</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>8.497423327474188</v>
+        <v>4.953536699426814</v>
       </c>
       <c r="C38">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D38">
-        <v>0.3903196756254617</v>
+        <v>0.2275351907522071</v>
       </c>
       <c r="E38">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F38">
-        <v>0.1832391674240104</v>
+        <v>0.1068184913975627</v>
       </c>
       <c r="G38">
-        <v>11.00525889191612</v>
+        <v>6.415468749396062</v>
       </c>
       <c r="I38">
-        <v>20.88773704429843</v>
+        <v>12.17641725373056</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>6.508664676363206</v>
+        <v>3.794198322965218</v>
       </c>
       <c r="C39">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="F39">
-        <v>0.1017995374577836</v>
+        <v>0.05934360633197929</v>
       </c>
       <c r="G39">
-        <v>11.00525889191612</v>
+        <v>6.415468749396062</v>
       </c>
       <c r="I39">
-        <v>17.61834431885272</v>
+        <v>10.27053870370329</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>6.327868435353116</v>
+        <v>3.688803925105073</v>
       </c>
       <c r="C40">
-        <v>0.003494950820821721</v>
+        <v>0.00203736668004491</v>
       </c>
       <c r="E40">
-        <v>0.3211034419226376</v>
+        <v>0.187185882423119</v>
       </c>
       <c r="F40">
-        <v>0.1832391674240104</v>
+        <v>0.1068184913975627</v>
       </c>
       <c r="G40">
-        <v>21.01003970274895</v>
+        <v>12.24771306702885</v>
       </c>
       <c r="I40">
-        <v>27.84574569826954</v>
+        <v>16.23255873263465</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>13.92131055777686</v>
+        <v>8.11536863523116</v>
       </c>
       <c r="C41">
-        <v>0.001747475410410861</v>
+        <v>0.001018683340022455</v>
       </c>
       <c r="D41">
-        <v>0.7806393512509234</v>
+        <v>0.4550703815044143</v>
       </c>
       <c r="E41">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F41">
-        <v>0.3664783348480209</v>
+        <v>0.2136369827951254</v>
       </c>
       <c r="G41">
-        <v>40.01912324333132</v>
+        <v>23.32897727053114</v>
       </c>
       <c r="I41">
-        <v>55.73150584646281</v>
+        <v>32.4884437182481</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>30.91615721272523</v>
+        <v>18.02244203408479</v>
       </c>
       <c r="C42">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D42">
-        <v>1.756438540314577</v>
+        <v>1.023908358384932</v>
       </c>
       <c r="E42">
-        <v>2.247724093458464</v>
+        <v>1.310301176961833</v>
       </c>
       <c r="F42">
-        <v>0.5089976872889183</v>
+        <v>0.2967180316598964</v>
       </c>
       <c r="G42">
-        <v>51.02438213524746</v>
+        <v>29.74444601992718</v>
       </c>
       <c r="H42">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I42">
-        <v>86.58528858925884</v>
+        <v>50.4745248210253</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>102.8730611347407</v>
+        <v>59.96941238242247</v>
       </c>
       <c r="C43">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D43">
-        <v>2.341918053752771</v>
+        <v>1.365211144513242</v>
       </c>
       <c r="E43">
-        <v>7.22482744325935</v>
+        <v>4.211682354520177</v>
       </c>
       <c r="F43">
-        <v>1.323393986951187</v>
+        <v>0.7714668823157306</v>
       </c>
       <c r="G43">
-        <v>78.03729032449608</v>
+        <v>45.49150567753572</v>
       </c>
       <c r="I43">
-        <v>191.8048596317261</v>
+        <v>111.8118251496574</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>186.0393319993817</v>
+        <v>108.4508353980892</v>
       </c>
       <c r="C44">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D44">
-        <v>5.854795134381928</v>
+        <v>3.413027861283107</v>
       </c>
       <c r="E44">
-        <v>5.779861954607477</v>
+        <v>3.369345883616141</v>
       </c>
       <c r="F44">
-        <v>1.628792599324537</v>
+        <v>0.9494977013116687</v>
       </c>
       <c r="G44">
-        <v>71.03394375691305</v>
+        <v>41.40893465519281</v>
       </c>
       <c r="H44">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I44">
-        <v>270.7210073528188</v>
+        <v>157.8156569994727</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>203.5765673773604</v>
+        <v>118.6740919905232</v>
       </c>
       <c r="C45">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D45">
-        <v>5.464475458756462</v>
+        <v>3.1854926705309</v>
       </c>
       <c r="E45">
-        <v>3.853241303071652</v>
+        <v>2.246230589077429</v>
       </c>
       <c r="F45">
-        <v>1.30303407945963</v>
+        <v>0.7595981610493345</v>
       </c>
       <c r="G45">
-        <v>52.02486021633073</v>
+        <v>30.32767045169048</v>
       </c>
       <c r="H45">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I45">
-        <v>266.4836088000168</v>
+        <v>155.3454835795447</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>153.3152123765555</v>
+        <v>89.37444938540293</v>
       </c>
       <c r="C46">
-        <v>0.01310606557808145</v>
+        <v>0.007640125050168413</v>
       </c>
       <c r="D46">
-        <v>5.659635296569197</v>
+        <v>3.299260265907003</v>
       </c>
       <c r="E46">
-        <v>3.532137861149015</v>
+        <v>2.059044706654308</v>
       </c>
       <c r="F46">
-        <v>1.567712876849868</v>
+        <v>0.9138915375124809</v>
       </c>
       <c r="G46">
-        <v>72.03442183799639</v>
+        <v>41.99215908695605</v>
       </c>
       <c r="H46">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I46">
-        <v>236.374919302684</v>
+        <v>137.7937514074561</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>116.0711867284772</v>
+        <v>67.66320342621306</v>
       </c>
       <c r="C47">
-        <v>0.008737377052054305</v>
+        <v>0.005093416700112275</v>
       </c>
       <c r="D47">
-        <v>5.464475458756462</v>
+        <v>3.1854926705309</v>
       </c>
       <c r="E47">
-        <v>2.568827535381101</v>
+        <v>1.497487059384952</v>
       </c>
       <c r="F47">
-        <v>1.934191211697888</v>
+        <v>1.127528520307606</v>
       </c>
       <c r="G47">
-        <v>71.03394375691305</v>
+        <v>41.40893465519281</v>
       </c>
       <c r="H47">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I47">
-        <v>197.3972283032601</v>
+        <v>115.0718726232959</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>112.8168543902955</v>
+        <v>65.76610426473044</v>
       </c>
       <c r="C48">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D48">
-        <v>4.293516431880079</v>
+        <v>2.502887098274278</v>
       </c>
       <c r="E48">
-        <v>2.729379256342421</v>
+        <v>1.591080000596511</v>
       </c>
       <c r="F48">
-        <v>1.852751581731662</v>
+        <v>1.080053635242023</v>
       </c>
       <c r="G48">
-        <v>51.02438213524746</v>
+        <v>29.74444601992718</v>
       </c>
       <c r="H48">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I48">
-        <v>172.9756929474195</v>
+        <v>100.8354427104337</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>116.4327792104973</v>
+        <v>67.87399222193335</v>
       </c>
       <c r="C49">
-        <v>0.01397980328328688</v>
+        <v>0.008149466720179641</v>
       </c>
       <c r="D49">
-        <v>4.293516431880079</v>
+        <v>2.502887098274278</v>
       </c>
       <c r="E49">
-        <v>2.087172372497146</v>
+        <v>1.216708235750274</v>
       </c>
       <c r="F49">
-        <v>1.526993061866754</v>
+        <v>0.8901540949796891</v>
       </c>
       <c r="G49">
-        <v>41.01960132441463</v>
+        <v>23.91220170229441</v>
       </c>
       <c r="H49">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I49">
-        <v>165.5003886984322</v>
+        <v>96.47774596993878</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_VOC.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>78.30803761008767</v>
+        <v>134.3316070704961</v>
       </c>
       <c r="C2">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D2">
-        <v>2.047816716769865</v>
+        <v>3.512877080629154</v>
       </c>
       <c r="E2">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F2">
-        <v>1.246215732971565</v>
+        <v>2.137790286613455</v>
       </c>
       <c r="G2">
-        <v>33.24379261050687</v>
+        <v>57.02725062174714</v>
       </c>
       <c r="H2">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I2">
-        <v>116.0482338732314</v>
+        <v>199.0721033197719</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>77.781065620787</v>
+        <v>133.4276258654457</v>
       </c>
       <c r="C3">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D3">
-        <v>4.323168624291937</v>
+        <v>7.416073836883771</v>
       </c>
       <c r="E3">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F3">
-        <v>1.008841307643648</v>
+        <v>1.730592136782321</v>
       </c>
       <c r="G3">
-        <v>28.57799715640064</v>
+        <v>49.02342597308086</v>
       </c>
       <c r="H3">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I3">
-        <v>112.929761145342</v>
+        <v>193.72259558177</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>82.41841912663342</v>
+        <v>141.3826604698896</v>
       </c>
       <c r="C4">
-        <v>0.01018683340022455</v>
+        <v>0.01747475410410861</v>
       </c>
       <c r="D4">
-        <v>3.413027861283107</v>
+        <v>5.854795134381928</v>
       </c>
       <c r="E4">
-        <v>1.403894118173393</v>
+        <v>2.408275814419783</v>
       </c>
       <c r="F4">
-        <v>0.9138915375124809</v>
+        <v>1.567712876849868</v>
       </c>
       <c r="G4">
-        <v>26.24509942934753</v>
+        <v>45.02151364874772</v>
       </c>
       <c r="H4">
-        <v>0.2577860249530809</v>
+        <v>0.442212728975365</v>
       </c>
       <c r="I4">
-        <v>114.6623049313033</v>
+        <v>196.6946454273684</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>108.2400466023689</v>
+        <v>185.6777395173615</v>
       </c>
       <c r="C5">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D5">
-        <v>5.574612173429075</v>
+        <v>9.562832052823808</v>
       </c>
       <c r="E5">
-        <v>1.96545176544275</v>
+        <v>3.371586140187696</v>
       </c>
       <c r="F5">
-        <v>0.9494977013116687</v>
+        <v>1.628792599324537</v>
       </c>
       <c r="G5">
-        <v>15.16383522584524</v>
+        <v>26.01243010816536</v>
       </c>
       <c r="H5">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I5">
-        <v>132.0074885850676</v>
+        <v>226.4490163227888</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>140.0691547561326</v>
+        <v>240.2782043024084</v>
       </c>
       <c r="C6">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D6">
-        <v>4.778239005796349</v>
+        <v>8.196713188134698</v>
       </c>
       <c r="E6">
-        <v>2.339823530288986</v>
+        <v>4.013793024032971</v>
       </c>
       <c r="F6">
-        <v>0.7952043248485223</v>
+        <v>1.3641138019343</v>
       </c>
       <c r="G6">
-        <v>16.33028408937179</v>
+        <v>28.01338627033193</v>
       </c>
       <c r="H6">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I6">
-        <v>164.4257321397681</v>
+        <v>282.0600990163578</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>118.7794863883833</v>
+        <v>203.7573636183704</v>
       </c>
       <c r="C7">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D7">
-        <v>2.844189884402589</v>
+        <v>4.878995945318271</v>
       </c>
       <c r="E7">
-        <v>2.901381177558344</v>
+        <v>4.977103349800887</v>
       </c>
       <c r="F7">
-        <v>0.5578298995206051</v>
+        <v>0.9569156521031658</v>
       </c>
       <c r="G7">
-        <v>15.16383522584524</v>
+        <v>26.01243010816536</v>
       </c>
       <c r="H7">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I7">
-        <v>140.4334021590267</v>
+        <v>240.9030435972665</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>84.10472949239569</v>
+        <v>144.2754003260511</v>
       </c>
       <c r="C8">
-        <v>0.006112100040134731</v>
+        <v>0.01048485246246516</v>
       </c>
       <c r="D8">
-        <v>1.93404912139376</v>
+        <v>3.317717242816423</v>
       </c>
       <c r="E8">
-        <v>1.778265883019631</v>
+        <v>3.050482698265058</v>
       </c>
       <c r="F8">
-        <v>0.3204554741926882</v>
+        <v>0.5497175022720316</v>
       </c>
       <c r="G8">
-        <v>25.07865056582098</v>
+        <v>43.0205574865812</v>
       </c>
       <c r="H8">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I8">
-        <v>113.2959157868495</v>
+        <v>194.3507066024413</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>52.27562133863189</v>
+        <v>89.67493554100417</v>
       </c>
       <c r="C9">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D9">
-        <v>2.047816716769865</v>
+        <v>3.512877080629154</v>
       </c>
       <c r="E9">
-        <v>2.714195295135225</v>
+        <v>4.65599990787825</v>
       </c>
       <c r="F9">
-        <v>0.3323241954590841</v>
+        <v>0.5700774097635882</v>
       </c>
       <c r="G9">
-        <v>26.82832386111082</v>
+        <v>46.02199172983106</v>
       </c>
       <c r="H9">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I9">
-        <v>84.23816403212027</v>
+        <v>144.504297342334</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>42.47394233763841</v>
+        <v>72.86088512706591</v>
       </c>
       <c r="C10">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D10">
-        <v>0.9101407630088285</v>
+        <v>1.561278702501847</v>
       </c>
       <c r="E10">
-        <v>0.7487435296924759</v>
+        <v>1.28441376769055</v>
       </c>
       <c r="F10">
-        <v>0.2017682615287296</v>
+        <v>0.3461184273564643</v>
       </c>
       <c r="G10">
-        <v>16.33028408937179</v>
+        <v>28.01338627033193</v>
       </c>
       <c r="I10">
-        <v>60.67048173961035</v>
+        <v>104.075693409704</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>27.92951543293842</v>
+        <v>47.91100386767362</v>
       </c>
       <c r="C11">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D11">
-        <v>0.3413027861283106</v>
+        <v>0.5854795134381927</v>
       </c>
       <c r="E11">
-        <v>1.216708235750274</v>
+        <v>2.087172372497146</v>
       </c>
       <c r="F11">
-        <v>0.1424246551967503</v>
+        <v>0.2443188898986807</v>
       </c>
       <c r="G11">
-        <v>17.49673295289836</v>
+        <v>30.0143424324985</v>
       </c>
       <c r="I11">
-        <v>47.12821208792214</v>
+        <v>80.84493828912176</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>15.80915967902174</v>
+        <v>27.11943615151338</v>
       </c>
       <c r="C12">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D12">
-        <v>0.2275351907522071</v>
+        <v>0.3903196756254617</v>
       </c>
       <c r="E12">
-        <v>0.7487435296924759</v>
+        <v>1.28441376769055</v>
       </c>
       <c r="F12">
-        <v>0.07121232759837515</v>
+        <v>0.1221594449493403</v>
       </c>
       <c r="G12">
-        <v>5.249019885869506</v>
+        <v>9.004302729749549</v>
       </c>
       <c r="H12">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I12">
-        <v>22.14708126295771</v>
+        <v>37.99166865587161</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>9.590890205273192</v>
+        <v>16.4524579319181</v>
       </c>
       <c r="C13">
-        <v>0.00203736668004491</v>
+        <v>0.003494950820821721</v>
       </c>
       <c r="D13">
-        <v>0.2275351907522071</v>
+        <v>0.3903196756254617</v>
       </c>
       <c r="E13">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F13">
-        <v>0.07121232759837515</v>
+        <v>0.1221594449493403</v>
       </c>
       <c r="G13">
-        <v>4.665795454106227</v>
+        <v>8.003824648666269</v>
       </c>
       <c r="I13">
-        <v>15.02543525046784</v>
+        <v>25.7750152567866</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>5.585903086587683</v>
+        <v>9.582200773534719</v>
       </c>
       <c r="C14">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D14">
-        <v>0.3413027861283106</v>
+        <v>0.5854795134381927</v>
       </c>
       <c r="E14">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F14">
-        <v>0.1068184913975627</v>
+        <v>0.1832391674240104</v>
       </c>
       <c r="G14">
-        <v>8.748366476449178</v>
+        <v>15.00717121624925</v>
       </c>
       <c r="I14">
-        <v>15.15981865542904</v>
+        <v>26.00553998072268</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>2.634859946503622</v>
+        <v>4.519906025252228</v>
       </c>
       <c r="C15">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D15">
-        <v>0.3413027861283106</v>
+        <v>0.5854795134381927</v>
       </c>
       <c r="E15">
-        <v>0.09359294121155949</v>
+        <v>0.1605517209613188</v>
       </c>
       <c r="F15">
-        <v>0.1068184913975627</v>
+        <v>0.1832391674240104</v>
       </c>
       <c r="G15">
-        <v>4.082571022342948</v>
+        <v>7.003346567582982</v>
       </c>
       <c r="I15">
-        <v>7.261691895934058</v>
+        <v>12.45689168318476</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.475521570042029</v>
+        <v>2.531147374141248</v>
       </c>
       <c r="C16">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D16">
-        <v>0.1137675953761036</v>
+        <v>0.1951598378127309</v>
       </c>
       <c r="F16">
-        <v>0.03560616379918757</v>
+        <v>0.06107972247467017</v>
       </c>
       <c r="G16">
-        <v>6.998693181159338</v>
+        <v>12.0057369729994</v>
       </c>
       <c r="I16">
-        <v>8.625116535386692</v>
+        <v>14.79574512054366</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>7.166819054489858</v>
+        <v>12.29414438868605</v>
       </c>
       <c r="D17">
-        <v>0.2275351907522071</v>
+        <v>0.3903196756254617</v>
       </c>
       <c r="E17">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F17">
-        <v>0.09494977013116682</v>
+        <v>0.1628792599324538</v>
       </c>
       <c r="G17">
-        <v>14.58061079408196</v>
+        <v>25.01195202708209</v>
       </c>
       <c r="I17">
-        <v>22.44428657430143</v>
+        <v>38.50150223517133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>17.28468124906377</v>
+        <v>29.65058352565461</v>
       </c>
       <c r="C18">
-        <v>0.00203736668004491</v>
+        <v>0.003494950820821721</v>
       </c>
       <c r="D18">
-        <v>0.4550703815044143</v>
+        <v>0.7806393512509234</v>
       </c>
       <c r="E18">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F18">
-        <v>0.3085867529262922</v>
+        <v>0.5293575947804748</v>
       </c>
       <c r="G18">
-        <v>32.66056817874358</v>
+        <v>56.02677254066386</v>
       </c>
       <c r="I18">
-        <v>51.83405922345682</v>
+        <v>88.91746861470651</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>54.59429809155506</v>
+        <v>93.65245284322611</v>
       </c>
       <c r="C19">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D19">
-        <v>1.137675953761035</v>
+        <v>1.951598378127309</v>
       </c>
       <c r="E19">
-        <v>3.930903530885499</v>
+        <v>6.743172280375393</v>
       </c>
       <c r="F19">
-        <v>0.6171735058525843</v>
+        <v>1.05871518956095</v>
       </c>
       <c r="G19">
-        <v>46.65795454106227</v>
+        <v>80.03824648666264</v>
       </c>
       <c r="H19">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I19">
-        <v>107.0500133731064</v>
+        <v>183.6363261320575</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>110.2425401617116</v>
+        <v>189.1128680965532</v>
       </c>
       <c r="C20">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D20">
-        <v>3.75433064741142</v>
+        <v>6.440274647820115</v>
       </c>
       <c r="E20">
-        <v>3.275752942404581</v>
+        <v>5.619310233646159</v>
       </c>
       <c r="F20">
-        <v>1.020710028910043</v>
+        <v>1.750952044273878</v>
       </c>
       <c r="G20">
-        <v>33.82701704227017</v>
+        <v>58.02772870283046</v>
       </c>
       <c r="H20">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I20">
-        <v>152.3443663226877</v>
+        <v>261.3354156333339</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>121.0981631413065</v>
+        <v>207.7348809205924</v>
       </c>
       <c r="C21">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D21">
-        <v>2.275351907522071</v>
+        <v>3.903196756254618</v>
       </c>
       <c r="E21">
-        <v>2.433416471500548</v>
+        <v>4.174344744994292</v>
       </c>
       <c r="F21">
-        <v>0.8901540949796891</v>
+        <v>1.526993061866754</v>
       </c>
       <c r="G21">
-        <v>31.49411931521704</v>
+        <v>54.02581637849728</v>
       </c>
       <c r="H21">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I21">
-        <v>158.4177671388558</v>
+        <v>271.7538824589416</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>94.6441692784102</v>
+        <v>162.3550244270601</v>
       </c>
       <c r="C22">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D22">
-        <v>3.1854926705309</v>
+        <v>5.464475458756462</v>
       </c>
       <c r="E22">
-        <v>2.433416471500548</v>
+        <v>4.174344744994292</v>
       </c>
       <c r="F22">
-        <v>1.044447471442836</v>
+        <v>1.791671859256991</v>
       </c>
       <c r="G22">
-        <v>39.65926135990293</v>
+        <v>68.03250951366326</v>
       </c>
       <c r="H22">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I22">
-        <v>141.154485518444</v>
+        <v>242.1400084026499</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>66.71465384547179</v>
+        <v>114.4440205593864</v>
       </c>
       <c r="C23">
-        <v>0.00865880839019087</v>
+        <v>0.01485354098849232</v>
       </c>
       <c r="D23">
-        <v>2.616654693650381</v>
+        <v>4.488676269692809</v>
       </c>
       <c r="E23">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F23">
-        <v>1.281821896770753</v>
+        <v>2.198870009088127</v>
       </c>
       <c r="G23">
-        <v>39.07603692813966</v>
+        <v>67.03203143258003</v>
       </c>
       <c r="H23">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I23">
-        <v>110.8547150344981</v>
+        <v>190.1630085033279</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>67.97938661979349</v>
+        <v>116.6135754515074</v>
       </c>
       <c r="C24">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D24">
-        <v>3.071725075154796</v>
+        <v>5.269315620943734</v>
       </c>
       <c r="E24">
-        <v>1.403894118173393</v>
+        <v>2.408275814419783</v>
       </c>
       <c r="F24">
-        <v>1.186872126639585</v>
+        <v>2.035990749155673</v>
       </c>
       <c r="G24">
-        <v>34.99346590579671</v>
+        <v>60.028684864997</v>
       </c>
       <c r="H24">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I24">
-        <v>108.7488796205579</v>
+        <v>186.5506046682443</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>63.974399501108</v>
+        <v>109.7433182931241</v>
       </c>
       <c r="C25">
-        <v>0.006621441710145959</v>
+        <v>0.0113585901676706</v>
       </c>
       <c r="D25">
-        <v>2.047816716769865</v>
+        <v>3.512877080629154</v>
       </c>
       <c r="E25">
-        <v>1.216708235750274</v>
+        <v>2.087172372497146</v>
       </c>
       <c r="F25">
-        <v>0.7477294397829393</v>
+        <v>1.282674171968074</v>
       </c>
       <c r="G25">
-        <v>25.66187499758425</v>
+        <v>44.02103556766448</v>
       </c>
       <c r="H25">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I25">
-        <v>93.72880348269207</v>
+        <v>160.7847825700436</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>73.98686729782177</v>
+        <v>126.9189611890825</v>
       </c>
       <c r="C26">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D26">
-        <v>3.1854926705309</v>
+        <v>5.464475458756462</v>
       </c>
       <c r="E26">
-        <v>1.029522353327154</v>
+        <v>1.766068930574507</v>
       </c>
       <c r="F26">
-        <v>1.163134684106794</v>
+        <v>1.995270934172559</v>
       </c>
       <c r="G26">
-        <v>28.57799715640064</v>
+        <v>49.02342597308086</v>
       </c>
       <c r="H26">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I26">
-        <v>108.1307124288438</v>
+        <v>185.4901848845857</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>71.66819054489856</v>
+        <v>122.9414438868606</v>
       </c>
       <c r="C27">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D27">
-        <v>2.502887098274278</v>
+        <v>4.293516431880079</v>
       </c>
       <c r="E27">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F27">
-        <v>0.7121232759837514</v>
+        <v>1.221594449493403</v>
       </c>
       <c r="G27">
-        <v>30.91089488345376</v>
+        <v>53.02533829741403</v>
       </c>
       <c r="H27">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I27">
-        <v>106.8077530980726</v>
+        <v>183.2207466708959</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>79.04579839510873</v>
+        <v>135.5971807575668</v>
       </c>
       <c r="C28">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D28">
-        <v>4.209401028915832</v>
+        <v>7.220913999071042</v>
       </c>
       <c r="E28">
-        <v>1.591080000596511</v>
+        <v>2.729379256342421</v>
       </c>
       <c r="F28">
-        <v>1.056316192709231</v>
+        <v>1.812031766748548</v>
       </c>
       <c r="G28">
-        <v>27.41154829287409</v>
+        <v>47.0224698109143</v>
       </c>
       <c r="H28">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I28">
-        <v>113.4670529685477</v>
+        <v>194.6442796933863</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>113.4043720975159</v>
+        <v>194.5367553268559</v>
       </c>
       <c r="C29">
-        <v>0.006112100040134731</v>
+        <v>0.01048485246246516</v>
       </c>
       <c r="D29">
-        <v>4.664471410420246</v>
+        <v>8.001553350321965</v>
       </c>
       <c r="E29">
-        <v>1.87185882423119</v>
+        <v>3.211034419226378</v>
       </c>
       <c r="F29">
-        <v>1.127528520307606</v>
+        <v>1.934191211697888</v>
       </c>
       <c r="G29">
-        <v>18.66318181642491</v>
+        <v>32.01529859466508</v>
       </c>
       <c r="H29">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I29">
-        <v>139.9216576439065</v>
+        <v>240.025183990212</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>128.5811653893768</v>
+        <v>220.5714140323087</v>
       </c>
       <c r="C30">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D30">
-        <v>4.550703815044141</v>
+        <v>7.806393512509237</v>
       </c>
       <c r="E30">
-        <v>2.152637647865868</v>
+        <v>3.692689582110333</v>
       </c>
       <c r="F30">
-        <v>0.7358607185165432</v>
+        <v>1.262314264476517</v>
       </c>
       <c r="G30">
-        <v>13.41416193055541</v>
+        <v>23.01099586491553</v>
       </c>
       <c r="H30">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I30">
-        <v>149.6257931597054</v>
+        <v>256.6719058191756</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>120.5711911520058</v>
+        <v>206.8308997155419</v>
       </c>
       <c r="C31">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D31">
-        <v>4.892006601172456</v>
+        <v>8.391873025947424</v>
       </c>
       <c r="E31">
-        <v>2.994974118769904</v>
+        <v>5.137655070762202</v>
       </c>
       <c r="F31">
-        <v>0.5696986207870012</v>
+        <v>0.9772755595947227</v>
       </c>
       <c r="G31">
-        <v>21.57930397524131</v>
+        <v>37.01768900008149</v>
       </c>
       <c r="H31">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I31">
-        <v>150.6859210346632</v>
+        <v>258.4904762429728</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>76.72712164218554</v>
+        <v>131.6196634553448</v>
       </c>
       <c r="C32">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D32">
-        <v>4.664471410420246</v>
+        <v>8.001553350321965</v>
       </c>
       <c r="E32">
-        <v>2.527009412712107</v>
+        <v>4.334896465955608</v>
       </c>
       <c r="F32">
-        <v>0.4984862931886259</v>
+        <v>0.8551161146453822</v>
       </c>
       <c r="G32">
-        <v>24.4954261340577</v>
+        <v>42.02007940549791</v>
       </c>
       <c r="I32">
-        <v>108.9165896259243</v>
+        <v>186.8382986934073</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>48.48142301566668</v>
+        <v>83.16627086464099</v>
       </c>
       <c r="C33">
-        <v>0.006112100040134731</v>
+        <v>0.01048485246246516</v>
       </c>
       <c r="D33">
-        <v>2.389119502898175</v>
+        <v>4.098356594067349</v>
       </c>
       <c r="E33">
-        <v>2.994974118769904</v>
+        <v>5.137655070762202</v>
       </c>
       <c r="F33">
-        <v>0.2729805891271048</v>
+        <v>0.4682778723058048</v>
       </c>
       <c r="G33">
-        <v>20.99607954347803</v>
+        <v>36.0172109189982</v>
       </c>
       <c r="I33">
-        <v>75.14068886998001</v>
+        <v>128.898256173237</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>40.99842076759642</v>
+        <v>70.32973775292467</v>
       </c>
       <c r="C34">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D34">
-        <v>1.137675953761035</v>
+        <v>1.951598378127309</v>
       </c>
       <c r="E34">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F34">
-        <v>0.2373744253279172</v>
+        <v>0.4071981498311343</v>
       </c>
       <c r="G34">
-        <v>18.07995738466163</v>
+        <v>31.01482051358177</v>
       </c>
       <c r="H34">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I34">
-        <v>61.42974991014597</v>
+        <v>105.378161415011</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>32.46147454092464</v>
+        <v>55.68524223110744</v>
       </c>
       <c r="C35">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D35">
-        <v>1.251443549137139</v>
+        <v>2.146758215940039</v>
       </c>
       <c r="E35">
-        <v>1.310301176961833</v>
+        <v>2.247724093458464</v>
       </c>
       <c r="F35">
-        <v>0.3085867529262922</v>
+        <v>0.5293575947804748</v>
       </c>
       <c r="G35">
-        <v>19.24640624818819</v>
+        <v>33.01577667574836</v>
       </c>
       <c r="H35">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I35">
-        <v>54.6196229181615</v>
+        <v>93.69589569737812</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>16.75770925976305</v>
+        <v>28.74660232060415</v>
       </c>
       <c r="C36">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D36">
-        <v>0.6826055722566212</v>
+        <v>1.170959026876385</v>
       </c>
       <c r="E36">
-        <v>0.6551505884809166</v>
+        <v>1.123862046729232</v>
       </c>
       <c r="F36">
-        <v>0.1424246551967503</v>
+        <v>0.2443188898986807</v>
       </c>
       <c r="G36">
-        <v>9.331590908212453</v>
+        <v>16.00764929733254</v>
       </c>
       <c r="I36">
-        <v>27.57304637559987</v>
+        <v>47.29950774537743</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>10.22325659243406</v>
+        <v>17.53723537797865</v>
       </c>
       <c r="C37">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D37">
-        <v>0.2275351907522071</v>
+        <v>0.3903196756254617</v>
       </c>
       <c r="E37">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F37">
-        <v>0.1542933764631461</v>
+        <v>0.2646787973902374</v>
       </c>
       <c r="G37">
-        <v>5.832244317632784</v>
+        <v>10.00478081083283</v>
       </c>
       <c r="H37">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I37">
-        <v>16.94670483336339</v>
+        <v>29.0708101529771</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>4.953536699426814</v>
+        <v>8.497423327474188</v>
       </c>
       <c r="C38">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D38">
-        <v>0.2275351907522071</v>
+        <v>0.3903196756254617</v>
       </c>
       <c r="E38">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F38">
-        <v>0.1068184913975627</v>
+        <v>0.1832391674240104</v>
       </c>
       <c r="G38">
-        <v>6.415468749396062</v>
+        <v>11.00525889191612</v>
       </c>
       <c r="I38">
-        <v>12.17641725373056</v>
+        <v>20.88773704429843</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>3.794198322965218</v>
+        <v>6.508664676363206</v>
       </c>
       <c r="C39">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="F39">
-        <v>0.05934360633197929</v>
+        <v>0.1017995374577836</v>
       </c>
       <c r="G39">
-        <v>6.415468749396062</v>
+        <v>11.00525889191612</v>
       </c>
       <c r="I39">
-        <v>10.27053870370329</v>
+        <v>17.61834431885272</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>3.688803925105073</v>
+        <v>6.327868435353116</v>
       </c>
       <c r="C40">
-        <v>0.00203736668004491</v>
+        <v>0.003494950820821721</v>
       </c>
       <c r="E40">
-        <v>0.187185882423119</v>
+        <v>0.3211034419226376</v>
       </c>
       <c r="F40">
-        <v>0.1068184913975627</v>
+        <v>0.1832391674240104</v>
       </c>
       <c r="G40">
-        <v>12.24771306702885</v>
+        <v>21.01003970274895</v>
       </c>
       <c r="I40">
-        <v>16.23255873263465</v>
+        <v>27.84574569826954</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>8.11536863523116</v>
+        <v>13.92131055777686</v>
       </c>
       <c r="C41">
-        <v>0.001018683340022455</v>
+        <v>0.001747475410410861</v>
       </c>
       <c r="D41">
-        <v>0.4550703815044143</v>
+        <v>0.7806393512509234</v>
       </c>
       <c r="E41">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F41">
-        <v>0.2136369827951254</v>
+        <v>0.3664783348480209</v>
       </c>
       <c r="G41">
-        <v>23.32897727053114</v>
+        <v>40.01912324333132</v>
       </c>
       <c r="I41">
-        <v>32.4884437182481</v>
+        <v>55.73150584646281</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>18.02244203408479</v>
+        <v>30.91615721272523</v>
       </c>
       <c r="C42">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D42">
-        <v>1.023908358384932</v>
+        <v>1.756438540314577</v>
       </c>
       <c r="E42">
-        <v>1.310301176961833</v>
+        <v>2.247724093458464</v>
       </c>
       <c r="F42">
-        <v>0.2967180316598964</v>
+        <v>0.5089976872889183</v>
       </c>
       <c r="G42">
-        <v>29.74444601992718</v>
+        <v>51.02438213524746</v>
       </c>
       <c r="H42">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I42">
-        <v>50.4745248210253</v>
+        <v>86.58528858925884</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>59.96941238242247</v>
+        <v>102.8730611347407</v>
       </c>
       <c r="C43">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D43">
-        <v>1.365211144513242</v>
+        <v>2.341918053752771</v>
       </c>
       <c r="E43">
-        <v>4.211682354520177</v>
+        <v>7.22482744325935</v>
       </c>
       <c r="F43">
-        <v>0.7714668823157306</v>
+        <v>1.323393986951187</v>
       </c>
       <c r="G43">
-        <v>45.49150567753572</v>
+        <v>78.03729032449608</v>
       </c>
       <c r="I43">
-        <v>111.8118251496574</v>
+        <v>191.8048596317261</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>108.4508353980892</v>
+        <v>186.0393319993817</v>
       </c>
       <c r="C44">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D44">
-        <v>3.413027861283107</v>
+        <v>5.854795134381928</v>
       </c>
       <c r="E44">
-        <v>3.369345883616141</v>
+        <v>5.779861954607477</v>
       </c>
       <c r="F44">
-        <v>0.9494977013116687</v>
+        <v>1.628792599324537</v>
       </c>
       <c r="G44">
-        <v>41.40893465519281</v>
+        <v>71.03394375691305</v>
       </c>
       <c r="H44">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I44">
-        <v>157.8156569994727</v>
+        <v>270.7210073528188</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>118.6740919905232</v>
+        <v>203.5765673773604</v>
       </c>
       <c r="C45">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D45">
-        <v>3.1854926705309</v>
+        <v>5.464475458756462</v>
       </c>
       <c r="E45">
-        <v>2.246230589077429</v>
+        <v>3.853241303071652</v>
       </c>
       <c r="F45">
-        <v>0.7595981610493345</v>
+        <v>1.30303407945963</v>
       </c>
       <c r="G45">
-        <v>30.32767045169048</v>
+        <v>52.02486021633073</v>
       </c>
       <c r="H45">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I45">
-        <v>155.3454835795447</v>
+        <v>266.4836088000168</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>89.37444938540293</v>
+        <v>153.3152123765555</v>
       </c>
       <c r="C46">
-        <v>0.007640125050168413</v>
+        <v>0.01310606557808145</v>
       </c>
       <c r="D46">
-        <v>3.299260265907003</v>
+        <v>5.659635296569197</v>
       </c>
       <c r="E46">
-        <v>2.059044706654308</v>
+        <v>3.532137861149015</v>
       </c>
       <c r="F46">
-        <v>0.9138915375124809</v>
+        <v>1.567712876849868</v>
       </c>
       <c r="G46">
-        <v>41.99215908695605</v>
+        <v>72.03442183799639</v>
       </c>
       <c r="H46">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I46">
-        <v>137.7937514074561</v>
+        <v>236.374919302684</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>67.66320342621306</v>
+        <v>116.0711867284772</v>
       </c>
       <c r="C47">
-        <v>0.005093416700112275</v>
+        <v>0.008737377052054305</v>
       </c>
       <c r="D47">
-        <v>3.1854926705309</v>
+        <v>5.464475458756462</v>
       </c>
       <c r="E47">
-        <v>1.497487059384952</v>
+        <v>2.568827535381101</v>
       </c>
       <c r="F47">
-        <v>1.127528520307606</v>
+        <v>1.934191211697888</v>
       </c>
       <c r="G47">
-        <v>41.40893465519281</v>
+        <v>71.03394375691305</v>
       </c>
       <c r="H47">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I47">
-        <v>115.0718726232959</v>
+        <v>197.3972283032601</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>65.76610426473044</v>
+        <v>112.8168543902955</v>
       </c>
       <c r="C48">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D48">
-        <v>2.502887098274278</v>
+        <v>4.293516431880079</v>
       </c>
       <c r="E48">
-        <v>1.591080000596511</v>
+        <v>2.729379256342421</v>
       </c>
       <c r="F48">
-        <v>1.080053635242023</v>
+        <v>1.852751581731662</v>
       </c>
       <c r="G48">
-        <v>29.74444601992718</v>
+        <v>51.02438213524746</v>
       </c>
       <c r="H48">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I48">
-        <v>100.8354427104337</v>
+        <v>172.9756929474195</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>67.87399222193335</v>
+        <v>116.4327792104973</v>
       </c>
       <c r="C49">
-        <v>0.008149466720179641</v>
+        <v>0.01397980328328688</v>
       </c>
       <c r="D49">
-        <v>2.502887098274278</v>
+        <v>4.293516431880079</v>
       </c>
       <c r="E49">
-        <v>1.216708235750274</v>
+        <v>2.087172372497146</v>
       </c>
       <c r="F49">
-        <v>0.8901540949796891</v>
+        <v>1.526993061866754</v>
       </c>
       <c r="G49">
-        <v>23.91220170229441</v>
+        <v>41.01960132441463</v>
       </c>
       <c r="H49">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I49">
-        <v>96.47774596993878</v>
+        <v>165.5003886984322</v>
       </c>
     </row>
   </sheetData>
